--- a/contracts/staking/tests/Staking_Integration_tests.xlsx
+++ b/contracts/staking/tests/Staking_Integration_tests.xlsx
@@ -5,21 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TNguy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TNguy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4188B854-CA0A-4625-944C-2D20692A60F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F7E1AD-74F7-4737-BD5B-7C4F3C8C7D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E99AD1FD-55D6-428D-96A6-EF731F3AB835}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Without_Proxy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -38,45 +38,45 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>reward_rate_daily_1</t>
+  </si>
+  <si>
     <t>reward_rate_1</t>
   </si>
   <si>
+    <t>reward_rate_daily_2</t>
+  </si>
+  <si>
     <t>reward_rate_2</t>
   </si>
   <si>
-    <t>reward_rate_daily_1</t>
-  </si>
-  <si>
-    <t>reward_rate_daily_2</t>
+    <t>staker_1_Claimable 1</t>
+  </si>
+  <si>
+    <t>staker_1_Claimable 2</t>
+  </si>
+  <si>
+    <t>staker_2_Claimable 1</t>
+  </si>
+  <si>
+    <t>staker_2_Claimable 2</t>
+  </si>
+  <si>
+    <t>staker_1</t>
+  </si>
+  <si>
+    <t>staker_2</t>
   </si>
   <si>
     <t>total_staked</t>
   </si>
   <si>
-    <t>staker_1</t>
-  </si>
-  <si>
-    <t>staker_2</t>
-  </si>
-  <si>
-    <t>staker_1_Claimable 1</t>
-  </si>
-  <si>
-    <t>staker_2_Claimable 1</t>
-  </si>
-  <si>
-    <t>staker_1_Claimable 2</t>
-  </si>
-  <si>
-    <t>staker_2_Claimable 2</t>
-  </si>
-  <si>
-    <t>seconds</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>CLAIM</t>
   </si>
   <si>
@@ -98,10 +98,10 @@
     <t>Unstake</t>
   </si>
   <si>
+    <t>UNSTAKE ALL</t>
+  </si>
+  <si>
     <t>PROXY STAKE OWNER TO STAKER 2</t>
-  </si>
-  <si>
-    <t>UNSTAKE ALL</t>
   </si>
   <si>
     <t>Proxy STAKER UNSTAKES 500 and stakes to himself</t>
@@ -117,10 +117,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -458,62 +458,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62A738C-89D2-4128-A38F-C956F1DD65BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="10" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -521,8 +521,8 @@
         <v>300000</v>
       </c>
       <c r="D2">
-        <f>ROUNDDOWN((C2/(24*60*60)),0)</f>
-        <v>3</v>
+        <f>(C2/(24*60*60))</f>
+        <v>3.4722222222222223</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -533,14 +533,14 @@
         <v>300000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">ROUNDDOWN((C3/(24*60*60)),0)</f>
-        <v>3</v>
+        <f>((C3/(24*60*60)))</f>
+        <v>3.4722222222222223</v>
       </c>
       <c r="K3">
         <v>1000</v>
       </c>
       <c r="M3">
-        <f>K3+L3</f>
+        <f t="shared" ref="M3:M18" si="0">K3+L3</f>
         <v>1000</v>
       </c>
     </row>
@@ -552,18 +552,18 @@
         <v>300000</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="D4:D18" si="1">(C4/(24*60*60))</f>
+        <v>3.4722222222222223</v>
       </c>
       <c r="G4">
         <f>(D4*(B4-B3)*K4/M4+G3)</f>
-        <v>15000</v>
+        <v>17361.111111111113</v>
       </c>
       <c r="K4">
         <v>1000</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M9" si="1">K4+L4</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -578,8 +578,8 @@
         <v>300000</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>1000</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5" si="2">K5+L5</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -603,15 +603,15 @@
         <v>300000</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E6">
         <v>600000</v>
       </c>
       <c r="F6">
-        <f>ROUNDDOWN((E6/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" ref="F6:F18" si="2">(E6/(24*60*60))</f>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G6">
         <f>(D6*(B6-B5)*K6/M6+G5)</f>
@@ -621,7 +621,7 @@
         <v>1000</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -636,29 +636,29 @@
         <v>300000</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E7">
         <v>600000</v>
       </c>
       <c r="F7">
-        <f>ROUNDDOWN((E7/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G10" si="3">(D7*(B7-B6)*K7/M7+G6)</f>
-        <v>7500</v>
+        <f>(D7*(B7-B6)*K7/M7+G6)</f>
+        <v>8680.5555555555566</v>
       </c>
       <c r="H7">
         <f>(F7*(B7-B6)*K7/M7+H6)</f>
-        <v>15000</v>
+        <v>17361.111111111113</v>
       </c>
       <c r="K7">
         <v>1000</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -673,15 +673,15 @@
         <v>300000</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E8">
         <v>600000</v>
       </c>
       <c r="F8">
-        <f>ROUNDDOWN((E8/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>1000</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -708,30 +708,30 @@
         <v>300000</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E9">
         <v>600000</v>
       </c>
       <c r="F9">
-        <f>ROUNDDOWN((E9/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G9:G18" si="3">(D9*(B9-B8)*K9/M9+G8)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>(F9*(B9-B8)*K9/M9+H8)</f>
+        <f t="shared" ref="H9:H18" si="4">(F9*(B9-B8)*K9/M9+H8)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>(D9*(B9-B8)*L9/M9+I8)</f>
+        <f t="shared" ref="I9:I18" si="5">(D9*(B9-B8)*L9/M9+I8)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>(F9*(B9-B8)*L9/M9+J8)</f>
+        <f t="shared" ref="J9:J18" si="6">(F9*(B9-B8)*L9/M9+J8)</f>
         <v>0</v>
       </c>
       <c r="K9">
@@ -741,7 +741,7 @@
         <v>1000</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -757,31 +757,31 @@
         <v>300000</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E10">
         <v>600000</v>
       </c>
       <c r="F10">
-        <f>ROUNDDOWN((E10/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
-        <v>7500</v>
+        <f>ROUNDDOWN(D10*(B10-B9)*K10/M10+G9, 0)</f>
+        <v>8680</v>
       </c>
       <c r="H10">
-        <f>(F10*(B10-B9)*K10/M10+H9)</f>
-        <v>15000</v>
+        <f>ROUNDDOWN(F10*(B10-B9)*K10/M10+H9, 0)</f>
+        <v>17361</v>
       </c>
       <c r="I10">
-        <f>(D10*(B10-B9)*L10/M10+I9)</f>
-        <v>7500</v>
+        <f>ROUNDDOWN(D10*(B10-B9)*L10/M10+I9, 0)</f>
+        <v>8680</v>
       </c>
       <c r="J10">
-        <f>(F10*(B10-B9)*L10/M10+J9)</f>
-        <v>15000</v>
+        <f>ROUNDDOWN(F10*(B10-B9)*L10/M10+J9, 0)</f>
+        <v>17361</v>
       </c>
       <c r="K10">
         <v>1000</v>
@@ -790,7 +790,7 @@
         <v>1000</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10" si="4">K10+L10</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -806,31 +806,31 @@
         <v>300000</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E11">
         <v>600000</v>
       </c>
       <c r="F11">
-        <f>ROUNDDOWN((E11/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G11">
-        <f>(D11*(B11-B10)*K11/M11+G10)</f>
-        <v>15000</v>
+        <f t="shared" ref="G11:G18" si="7">ROUNDDOWN(D11*(B11-B10)*K11/M11+G10, 0)</f>
+        <v>17360</v>
       </c>
       <c r="H11">
-        <f>(F11*(B11-B10)*K11/M11+H10)</f>
-        <v>30000</v>
+        <f t="shared" ref="H11:H18" si="8">ROUNDDOWN(F11*(B11-B10)*K11/M11+H10, 0)</f>
+        <v>34722</v>
       </c>
       <c r="I11">
-        <f>(D11*(B11-B10)*L11/M11+I10)</f>
-        <v>15000</v>
+        <f t="shared" ref="I11:I18" si="9">ROUNDDOWN(D11*(B11-B10)*L11/M11+I10, 0)</f>
+        <v>17360</v>
       </c>
       <c r="J11">
-        <f>(F11*(B11-B10)*L11/M11+J10)</f>
-        <v>30000</v>
+        <f t="shared" ref="J11:J18" si="10">ROUNDDOWN(F11*(B11-B10)*L11/M11+J10, 0)</f>
+        <v>34722</v>
       </c>
       <c r="K11">
         <v>1000</v>
@@ -839,7 +839,7 @@
         <v>1000</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11" si="5">K11+L11</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -854,31 +854,29 @@
         <v>300000</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E12">
         <v>600000</v>
       </c>
       <c r="F12">
-        <f>ROUNDDOWN((E12/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G12">
-        <f>(D12*(B12-B11)*K12/M12+G11)</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <f>(F12*(B12-B11)*K12/M12+H11)</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <f>(D12*(B12-B11)*L12/M12+I11)</f>
-        <v>15000</v>
+        <f t="shared" si="9"/>
+        <v>17360</v>
       </c>
       <c r="J12">
-        <f>(F12*(B12-B11)*L12/M12+J11)</f>
-        <v>30000</v>
+        <f t="shared" si="10"/>
+        <v>34722</v>
       </c>
       <c r="K12">
         <v>500</v>
@@ -887,7 +885,7 @@
         <v>1000</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12" si="6">K12+L12</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
@@ -903,31 +901,31 @@
         <v>300000</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E13">
         <v>600000</v>
       </c>
       <c r="F13">
-        <f>ROUNDDOWN((E13/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G13">
-        <f>(D13*(B13-B12)*K13/M13+G12)</f>
-        <v>20000</v>
+        <f t="shared" si="7"/>
+        <v>5787</v>
       </c>
       <c r="H13">
-        <f>(F13*(B13-B12)*K13/M13+H12)</f>
-        <v>40000</v>
+        <f t="shared" si="8"/>
+        <v>11574</v>
       </c>
       <c r="I13">
-        <f>(D13*(B13-B12)*L13/M13+I12)</f>
-        <v>25000</v>
+        <f t="shared" si="9"/>
+        <v>28934</v>
       </c>
       <c r="J13">
-        <f>(F13*(B13-B12)*L13/M13+J12)</f>
-        <v>50000</v>
+        <f t="shared" si="10"/>
+        <v>57870</v>
       </c>
       <c r="K13">
         <v>500</v>
@@ -936,13 +934,13 @@
         <v>1000</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13" si="7">K13+L13</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <f>B13+0</f>
@@ -952,31 +950,29 @@
         <v>300000</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E14">
         <v>600000</v>
       </c>
       <c r="F14">
-        <f>ROUNDDOWN((E14/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G14">
-        <f>(D14*(B14-B13)*K14/M14+G13)</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <f>(F14*(B14-B13)*K14/M14+H13)</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <f>(D14*(B14-B13)*L14/M14+I13)</f>
-        <v>25000</v>
+        <f t="shared" si="9"/>
+        <v>28934</v>
       </c>
       <c r="J14">
-        <f>(F14*(B14-B13)*L14/M14+J13)</f>
-        <v>50000</v>
+        <f t="shared" si="10"/>
+        <v>57870</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -985,13 +981,13 @@
         <v>1000</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14" si="8">K14+L14</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <f>B14+5000</f>
@@ -1001,31 +997,31 @@
         <v>300000</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E15">
         <v>600000</v>
       </c>
       <c r="F15">
-        <f>ROUNDDOWN((E15/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G15">
-        <f>(D15*(B15-B14)*K15/M15+G14)</f>
-        <v>20000</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H15">
-        <f>(F15*(B15-B14)*K15/M15+H14)</f>
-        <v>40000</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="I15">
-        <f>(D15*(B15-B14)*L15/M15+I14)</f>
-        <v>40000</v>
+        <f t="shared" si="9"/>
+        <v>46295</v>
       </c>
       <c r="J15">
-        <f>(F15*(B15-B14)*L15/M15+J14)</f>
-        <v>80000</v>
+        <f t="shared" si="10"/>
+        <v>92592</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1034,7 +1030,7 @@
         <v>2000</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15" si="9">K15+L15</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1050,31 +1046,31 @@
         <v>300000</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E16">
         <v>600000</v>
       </c>
       <c r="F16">
-        <f>ROUNDDOWN((E16/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G16">
-        <f>(D16*(B16-B15)*K16/M16+G15)</f>
-        <v>20000</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H16">
-        <f>(F16*(B16-B15)*K16/M16+H15)</f>
-        <v>40000</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="I16">
-        <f>(D16*(B16-B15)*L16/M16+I15)</f>
-        <v>40000</v>
+        <f t="shared" si="9"/>
+        <v>46295</v>
       </c>
       <c r="J16">
-        <f>(F16*(B16-B15)*L16/M16+J15)</f>
-        <v>80000</v>
+        <f t="shared" si="10"/>
+        <v>92592</v>
       </c>
       <c r="K16">
         <v>500</v>
@@ -1083,7 +1079,7 @@
         <v>1500</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16" si="10">K16+L16</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1099,31 +1095,31 @@
         <v>300000</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E17">
         <v>600000</v>
       </c>
       <c r="F17">
-        <f>ROUNDDOWN((E17/(24*60*60)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G17">
-        <f>(D17*(B17-B16)*K17/M17+G16)</f>
-        <v>23750</v>
+        <f t="shared" si="7"/>
+        <v>4340</v>
       </c>
       <c r="H17">
-        <f>(F17*(B17-B16)*K17/M17+H16)</f>
-        <v>47500</v>
+        <f t="shared" si="8"/>
+        <v>8680</v>
       </c>
       <c r="I17">
-        <f>(D17*(B17-B16)*L17/M17+I16)</f>
-        <v>51250</v>
+        <f t="shared" si="9"/>
+        <v>59315</v>
       </c>
       <c r="J17">
-        <f>(F17*(B17-B16)*L17/M17+J16)</f>
-        <v>102500</v>
+        <f t="shared" si="10"/>
+        <v>118633</v>
       </c>
       <c r="K17">
         <v>500</v>
@@ -1132,7 +1128,7 @@
         <v>1500</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17" si="11">K17+L17</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1148,30 +1144,31 @@
         <v>300000</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="E18">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>5.7870370370370372</v>
       </c>
       <c r="G18">
-        <f>(D18*(B18-B17)*K18/M18+G17)</f>
-        <v>27500</v>
+        <f t="shared" si="7"/>
+        <v>8680</v>
       </c>
       <c r="H18">
-        <f>(F18*(B18-B17)*K18/M18+H17)</f>
-        <v>53750</v>
+        <f>ROUNDDOWN(F18*(B18-B17)*K18/M18+H17, 0)</f>
+        <v>15913</v>
       </c>
       <c r="I18">
-        <f>(D18*(B18-B17)*L18/M18+I17)</f>
-        <v>62500</v>
+        <f t="shared" si="9"/>
+        <v>72335</v>
       </c>
       <c r="J18">
-        <f>(F18*(B18-B17)*L18/M18+J17)</f>
-        <v>121250</v>
+        <f t="shared" si="10"/>
+        <v>140334</v>
       </c>
       <c r="K18">
         <v>500</v>
@@ -1180,11 +1177,12 @@
         <v>1500</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18" si="12">K18+L18</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>